--- a/Time.xlsx
+++ b/Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studium\Technikum\SS2021\SWE2\TourPlanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CA7764-2D6B-4DB3-A416-06D3635FCFC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8995674-CF74-40C1-B8C6-42FA096CB185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Setting up repository, writing/understanding Hello World Program</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Tasks</t>
+  </si>
+  <si>
+    <t>12.04.2020</t>
+  </si>
+  <si>
+    <t>Creating Basic GUI</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,6 +409,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
